--- a/level_design.xlsx
+++ b/level_design.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\cocos\cat\Classes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3AD976-86F3-40B3-AEFF-01995679989A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9330" xr2:uid="{F078E3C7-270F-4FCE-943A-5CBF9EAF5423}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="9336"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -86,7 +85,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="23" formatCode="\$#,##0_);\(\$#,##0\)"/>
   </numFmts>
@@ -138,7 +137,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -154,9 +153,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ko-KR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -168,6 +167,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -264,7 +264,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-403D-4844-BC67-3AC10FA687CC}"/>
             </c:ext>
@@ -279,11 +279,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="623129208"/>
-        <c:axId val="623125928"/>
+        <c:axId val="-158005472"/>
+        <c:axId val="-157997856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="623129208"/>
+        <c:axId val="-158005472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -326,7 +326,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="623125928"/>
+        <c:crossAx val="-157997856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -334,7 +334,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="623125928"/>
+        <c:axId val="-157997856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -385,7 +385,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="623129208"/>
+        <c:crossAx val="-158005472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1010,7 +1010,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CB3858C-F91F-4A02-A1CA-B2F8E882AE2A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0CB3858C-F91F-4A02-A1CA-B2F8E882AE2A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1327,24 +1327,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3514CE6E-43D2-4560-89D2-54E87C8FA1A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.59765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1419,11 +1419,11 @@
         <v>72</v>
       </c>
       <c r="G3">
-        <f>((D3/4) * C3) + G2</f>
-        <v>10</v>
+        <f>((D3/2) * C3) + G2</f>
+        <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1447,11 +1447,11 @@
         <v>168</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G13" si="4">((D4/4) * C4) + G3</f>
-        <v>26</v>
+        <f t="shared" ref="G4:G13" si="4">((D4/2) * C4) + G3</f>
+        <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1476,13 +1476,13 @@
       </c>
       <c r="G5">
         <f t="shared" si="4"/>
-        <v>58</v>
+        <v>114</v>
       </c>
       <c r="I5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1507,10 +1507,10 @@
       </c>
       <c r="G6">
         <f t="shared" si="4"/>
-        <v>122</v>
+        <v>242</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1535,10 +1535,10 @@
       </c>
       <c r="G7">
         <f t="shared" si="4"/>
-        <v>250</v>
+        <v>498</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1563,10 +1563,10 @@
       </c>
       <c r="G8">
         <f t="shared" si="4"/>
-        <v>506</v>
+        <v>1010</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1591,10 +1591,10 @@
       </c>
       <c r="G9">
         <f t="shared" si="4"/>
-        <v>1018</v>
+        <v>2034</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1619,13 +1619,13 @@
       </c>
       <c r="G10">
         <f t="shared" si="4"/>
-        <v>2042</v>
+        <v>4082</v>
       </c>
       <c r="H10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1650,7 +1650,7 @@
       </c>
       <c r="G11">
         <f t="shared" si="4"/>
-        <v>4090</v>
+        <v>8178</v>
       </c>
       <c r="H11" t="s">
         <v>5</v>
@@ -1659,7 +1659,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1684,10 +1684,10 @@
       </c>
       <c r="G12">
         <f t="shared" si="4"/>
-        <v>8186</v>
+        <v>16370</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1712,18 +1712,18 @@
       </c>
       <c r="G13">
         <f t="shared" si="4"/>
-        <v>16378</v>
+        <v>32754</v>
       </c>
       <c r="H13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="6:6" x14ac:dyDescent="0.4">
       <c r="F17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="6:6" x14ac:dyDescent="0.4">
       <c r="F18" t="s">
         <v>13</v>
       </c>
